--- a/artfynd/A 21511-2022.xlsx
+++ b/artfynd/A 21511-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101964143</v>
+        <v>101962205</v>
       </c>
       <c r="B2" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505182.813384954</v>
+        <v>505289.6892542656</v>
       </c>
       <c r="R2" t="n">
-        <v>7024057.919267574</v>
+        <v>7024687.122882423</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101961237</v>
+        <v>101962135</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505150.4645866206</v>
+        <v>505286.5165151077</v>
       </c>
       <c r="R3" t="n">
-        <v>7024322.334824757</v>
+        <v>7024702.830583667</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101962634</v>
+        <v>101962409</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>96354</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505191.403559137</v>
+        <v>505207.983488301</v>
       </c>
       <c r="R4" t="n">
-        <v>7024584.601933427</v>
+        <v>7024617.851396061</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -994,11 +994,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>50-tal plantor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,7 +1020,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101961818</v>
+        <v>101962174</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1068,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505053.7762084119</v>
+        <v>505276.6294293109</v>
       </c>
       <c r="R5" t="n">
-        <v>7024622.992183947</v>
+        <v>7024701.018546463</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1145,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101960955</v>
+        <v>101962793</v>
       </c>
       <c r="B6" t="n">
-        <v>89410</v>
+        <v>89356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1157,25 +1152,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1186,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505182.6567327932</v>
+        <v>505167.9857412797</v>
       </c>
       <c r="R6" t="n">
-        <v>7024154.907976707</v>
+        <v>7024609.705576058</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1258,10 +1253,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101961282</v>
+        <v>107191956</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,38 +1269,41 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Östersund, Jmt</t>
+          <t>Sällflon Handog NÖ, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505099.1858613641</v>
+        <v>505212.9541713706</v>
       </c>
       <c r="R7" t="n">
-        <v>7024337.518639307</v>
+        <v>7024602.146124261</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1329,7 +1327,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1339,12 +1337,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1359,22 +1362,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101962923</v>
+        <v>101964143</v>
       </c>
       <c r="B8" t="n">
-        <v>96354</v>
+        <v>89410</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,40 +1386,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505123.0483517249</v>
+        <v>505182.813384954</v>
       </c>
       <c r="R8" t="n">
-        <v>7024597.960710336</v>
+        <v>7024057.919267574</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1485,10 +1487,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101962873</v>
+        <v>101961237</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,21 +1503,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1526,10 +1528,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505141.0466565556</v>
+        <v>505150.4645866206</v>
       </c>
       <c r="R9" t="n">
-        <v>7024588.112490827</v>
+        <v>7024322.334824757</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1598,10 +1600,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101963402</v>
+        <v>101962634</v>
       </c>
       <c r="B10" t="n">
-        <v>96354</v>
+        <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,25 +1612,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1642,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>505099.0345876367</v>
+        <v>505191.403559137</v>
       </c>
       <c r="R10" t="n">
-        <v>7024432.703014738</v>
+        <v>7024584.601933427</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1686,6 +1688,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>50-tal plantor</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1712,10 +1719,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101963909</v>
+        <v>101961818</v>
       </c>
       <c r="B11" t="n">
-        <v>96354</v>
+        <v>56395</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1724,40 +1731,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>505242.8337184278</v>
+        <v>505053.7762084119</v>
       </c>
       <c r="R11" t="n">
-        <v>7024199.458035694</v>
+        <v>7024622.992183947</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1800,6 +1808,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1826,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101963316</v>
+        <v>101960955</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1842,21 +1855,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1867,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505051.2725368073</v>
+        <v>505182.6567327932</v>
       </c>
       <c r="R12" t="n">
-        <v>7024499.973365523</v>
+        <v>7024154.907976707</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1939,10 +1952,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101962943</v>
+        <v>101961282</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1955,37 +1968,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505133.4586762256</v>
+        <v>505099.1858613641</v>
       </c>
       <c r="R13" t="n">
-        <v>7024553.979524222</v>
+        <v>7024337.518639307</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2028,11 +2039,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2059,10 +2065,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101961999</v>
+        <v>101962923</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>96354</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2071,39 +2077,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505134.5673855476</v>
+        <v>505123.0483517249</v>
       </c>
       <c r="R14" t="n">
-        <v>7024703.930606476</v>
+        <v>7024597.960710336</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2172,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101962788</v>
+        <v>101962873</v>
       </c>
       <c r="B15" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2184,40 +2191,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505230.5748988798</v>
+        <v>505141.0466565556</v>
       </c>
       <c r="R15" t="n">
-        <v>7024548.299896016</v>
+        <v>7024588.112490827</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2260,11 +2266,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>100-tal plantor</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2291,7 +2292,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101962812</v>
+        <v>101963402</v>
       </c>
       <c r="B16" t="n">
         <v>96354</v>
@@ -2333,10 +2334,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505190.0316263599</v>
+        <v>505099.0345876367</v>
       </c>
       <c r="R16" t="n">
-        <v>7024598.966281394</v>
+        <v>7024432.703014738</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2405,10 +2406,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101961377</v>
+        <v>101963909</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2417,39 +2418,40 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505046.4924516133</v>
+        <v>505242.8337184278</v>
       </c>
       <c r="R17" t="n">
-        <v>7024394.905619953</v>
+        <v>7024199.458035694</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2518,7 +2520,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101961542</v>
+        <v>101963316</v>
       </c>
       <c r="B18" t="n">
         <v>77506</v>
@@ -2559,10 +2561,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505031.3503892951</v>
+        <v>505051.2725368073</v>
       </c>
       <c r="R18" t="n">
-        <v>7024589.734403737</v>
+        <v>7024499.973365523</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2631,10 +2633,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>101963308</v>
+        <v>101962943</v>
       </c>
       <c r="B19" t="n">
-        <v>96354</v>
+        <v>56395</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2643,40 +2645,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505051.2725368073</v>
+        <v>505133.4586762256</v>
       </c>
       <c r="R19" t="n">
-        <v>7024499.973365523</v>
+        <v>7024553.979524222</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2719,6 +2722,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2745,10 +2753,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>101962880</v>
+        <v>101961999</v>
       </c>
       <c r="B20" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2761,21 +2769,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2786,10 +2794,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505141.0466565556</v>
+        <v>505134.5673855476</v>
       </c>
       <c r="R20" t="n">
-        <v>7024588.112490827</v>
+        <v>7024703.930606476</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2858,10 +2866,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>101962205</v>
+        <v>101962788</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>96334</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2870,39 +2878,40 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505289.6892542656</v>
+        <v>505230.5748988798</v>
       </c>
       <c r="R21" t="n">
-        <v>7024687.122882423</v>
+        <v>7024548.299896016</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2945,6 +2954,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>100-tal plantor</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2971,7 +2985,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>101961782</v>
+        <v>101962812</v>
       </c>
       <c r="B22" t="n">
         <v>96354</v>
@@ -3013,10 +3027,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505071.2436967121</v>
+        <v>505190.0316263599</v>
       </c>
       <c r="R22" t="n">
-        <v>7024664.32295818</v>
+        <v>7024598.966281394</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3085,7 +3099,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>101963642</v>
+        <v>101961377</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3126,10 +3140,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>505243.7146094487</v>
+        <v>505046.4924516133</v>
       </c>
       <c r="R23" t="n">
-        <v>7024210.684706042</v>
+        <v>7024394.905619953</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3198,10 +3212,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>101962135</v>
+        <v>101961542</v>
       </c>
       <c r="B24" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3214,21 +3228,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3239,10 +3253,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505286.5165151077</v>
+        <v>505031.3503892951</v>
       </c>
       <c r="R24" t="n">
-        <v>7024702.830583667</v>
+        <v>7024589.734403737</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3311,7 +3325,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>101963246</v>
+        <v>101963308</v>
       </c>
       <c r="B25" t="n">
         <v>96354</v>
@@ -3353,10 +3367,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>505049.3576435552</v>
+        <v>505051.2725368073</v>
       </c>
       <c r="R25" t="n">
-        <v>7024574.049215455</v>
+        <v>7024499.973365523</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3425,10 +3439,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>101963154</v>
+        <v>101962880</v>
       </c>
       <c r="B26" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3437,40 +3451,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>505104.697747403</v>
+        <v>505141.0466565556</v>
       </c>
       <c r="R26" t="n">
-        <v>7024546.750257618</v>
+        <v>7024588.112490827</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3539,10 +3552,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>101961718</v>
+        <v>101961782</v>
       </c>
       <c r="B27" t="n">
-        <v>56395</v>
+        <v>96354</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3551,41 +3564,40 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>505034.3860168228</v>
+        <v>505071.2436967121</v>
       </c>
       <c r="R27" t="n">
-        <v>7024660.673344476</v>
+        <v>7024664.32295818</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3628,11 +3640,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3659,10 +3666,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101962409</v>
+        <v>101963642</v>
       </c>
       <c r="B28" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3671,40 +3678,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>505207.983488301</v>
+        <v>505243.7146094487</v>
       </c>
       <c r="R28" t="n">
-        <v>7024617.851396061</v>
+        <v>7024210.684706042</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3773,10 +3779,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>101960896</v>
+        <v>101963246</v>
       </c>
       <c r="B29" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3785,39 +3791,40 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>505211.3998533073</v>
+        <v>505049.3576435552</v>
       </c>
       <c r="R29" t="n">
-        <v>7024175.160196485</v>
+        <v>7024574.049215455</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3886,10 +3893,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>101963829</v>
+        <v>101963154</v>
       </c>
       <c r="B30" t="n">
-        <v>89673</v>
+        <v>96354</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3898,39 +3905,40 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>221952</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>505237.901116207</v>
+        <v>505104.697747403</v>
       </c>
       <c r="R30" t="n">
-        <v>7024191.367789404</v>
+        <v>7024546.750257618</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3999,10 +4007,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>101962460</v>
+        <v>101961718</v>
       </c>
       <c r="B31" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4015,35 +4023,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>505195.8861092342</v>
+        <v>505034.3860168228</v>
       </c>
       <c r="R31" t="n">
-        <v>7024592.690392299</v>
+        <v>7024660.673344476</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4090,7 +4100,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4117,10 +4127,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>101962852</v>
+        <v>101960896</v>
       </c>
       <c r="B32" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4129,40 +4139,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>505172.0643537337</v>
+        <v>505211.3998533073</v>
       </c>
       <c r="R32" t="n">
-        <v>7024589.509212567</v>
+        <v>7024175.160196485</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4231,10 +4240,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>101961764</v>
+        <v>101963829</v>
       </c>
       <c r="B33" t="n">
-        <v>56395</v>
+        <v>89673</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4247,37 +4256,35 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>505072.6413351368</v>
+        <v>505237.901116207</v>
       </c>
       <c r="R33" t="n">
-        <v>7024633.347809729</v>
+        <v>7024191.367789404</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4320,11 +4327,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4351,10 +4353,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>101962174</v>
+        <v>101962460</v>
       </c>
       <c r="B34" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4367,37 +4369,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>505276.6294293109</v>
+        <v>505195.8861092342</v>
       </c>
       <c r="R34" t="n">
-        <v>7024701.018546463</v>
+        <v>7024592.690392299</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4471,7 +4471,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>101963508</v>
+        <v>101962852</v>
       </c>
       <c r="B35" t="n">
         <v>96354</v>
@@ -4513,10 +4513,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>505137.431202813</v>
+        <v>505172.0643537337</v>
       </c>
       <c r="R35" t="n">
-        <v>7024319.170978282</v>
+        <v>7024589.509212567</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>101960734</v>
+        <v>101961764</v>
       </c>
       <c r="B36" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4601,35 +4601,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>505216.0128478511</v>
+        <v>505072.6413351368</v>
       </c>
       <c r="R36" t="n">
-        <v>7024103.32474665</v>
+        <v>7024633.347809729</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4672,6 +4674,11 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4698,10 +4705,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>101962793</v>
+        <v>101963508</v>
       </c>
       <c r="B37" t="n">
-        <v>89356</v>
+        <v>96354</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4714,35 +4721,36 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5447</v>
+        <v>221952</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>505167.9857412797</v>
+        <v>505137.431202813</v>
       </c>
       <c r="R37" t="n">
-        <v>7024609.705576058</v>
+        <v>7024319.170978282</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4811,10 +4819,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107191953</v>
+        <v>101960734</v>
       </c>
       <c r="B38" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4827,41 +4835,38 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Sällflon Handog NÖ, Jmt</t>
+          <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>505124.7920948349</v>
+        <v>505216.0128478511</v>
       </c>
       <c r="R38" t="n">
-        <v>7024632.083844565</v>
+        <v>7024103.32474665</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4885,7 +4890,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4895,17 +4900,12 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4920,19 +4920,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>107191961</v>
+        <v>107191953</v>
       </c>
       <c r="B39" t="n">
         <v>56395</v>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>505015.7444427097</v>
+        <v>505124.7920948349</v>
       </c>
       <c r="R39" t="n">
-        <v>7024219.749411361</v>
+        <v>7024632.083844565</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>107191959</v>
+        <v>107191961</v>
       </c>
       <c r="B40" t="n">
         <v>56395</v>
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>505346.3482717267</v>
+        <v>505015.7444427097</v>
       </c>
       <c r="R40" t="n">
-        <v>7024407.962760132</v>
+        <v>7024219.749411361</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5174,7 +5174,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>107191962</v>
+        <v>107191959</v>
       </c>
       <c r="B41" t="n">
         <v>56395</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>504997.4689167721</v>
+        <v>505346.3482717267</v>
       </c>
       <c r="R41" t="n">
-        <v>7024406.502413709</v>
+        <v>7024407.962760132</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5295,7 +5295,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107191955</v>
+        <v>107191962</v>
       </c>
       <c r="B42" t="n">
         <v>56395</v>
@@ -5339,10 +5339,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>505138.7636031522</v>
+        <v>504997.4689167721</v>
       </c>
       <c r="R42" t="n">
-        <v>7024610.107588517</v>
+        <v>7024406.502413709</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>107191965</v>
+        <v>107191955</v>
       </c>
       <c r="B43" t="n">
         <v>56395</v>
@@ -5460,10 +5460,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>505027.3324623604</v>
+        <v>505138.7636031522</v>
       </c>
       <c r="R43" t="n">
-        <v>7024571.769837097</v>
+        <v>7024610.107588517</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5537,10 +5537,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>107191971</v>
+        <v>107191965</v>
       </c>
       <c r="B44" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5553,34 +5553,38 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Sällflon Handog NÖ, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>505275.6853465831</v>
+        <v>505027.3324623604</v>
       </c>
       <c r="R44" t="n">
-        <v>7024454.98844434</v>
+        <v>7024571.769837097</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5623,6 +5627,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5649,10 +5658,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>107191956</v>
+        <v>107191971</v>
       </c>
       <c r="B45" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5665,38 +5674,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Sällflon Handog NÖ, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>505212.9541713706</v>
+        <v>505275.6853465831</v>
       </c>
       <c r="R45" t="n">
-        <v>7024602.146124261</v>
+        <v>7024454.98844434</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5739,11 +5744,6 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">

--- a/artfynd/A 21511-2022.xlsx
+++ b/artfynd/A 21511-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101962205</v>
+        <v>101964143</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505289.6892542656</v>
+        <v>505182.813384954</v>
       </c>
       <c r="R2" t="n">
-        <v>7024687.122882423</v>
+        <v>7024057.919267574</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101962135</v>
+        <v>101961237</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505286.5165151077</v>
+        <v>505150.4645866206</v>
       </c>
       <c r="R3" t="n">
-        <v>7024702.830583667</v>
+        <v>7024322.334824757</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101962409</v>
+        <v>101962634</v>
       </c>
       <c r="B4" t="n">
-        <v>96354</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505207.983488301</v>
+        <v>505191.403559137</v>
       </c>
       <c r="R4" t="n">
-        <v>7024617.851396061</v>
+        <v>7024584.601933427</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -994,6 +994,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>50-tal plantor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1020,7 +1025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101962174</v>
+        <v>101961818</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1063,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505276.6294293109</v>
+        <v>505053.7762084119</v>
       </c>
       <c r="R5" t="n">
-        <v>7024701.018546463</v>
+        <v>7024622.992183947</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1140,10 +1145,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101962793</v>
+        <v>101960955</v>
       </c>
       <c r="B6" t="n">
-        <v>89356</v>
+        <v>89410</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,25 +1157,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1181,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505167.9857412797</v>
+        <v>505182.6567327932</v>
       </c>
       <c r="R6" t="n">
-        <v>7024609.705576058</v>
+        <v>7024154.907976707</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1253,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107191956</v>
+        <v>101961282</v>
       </c>
       <c r="B7" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1269,41 +1274,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sällflon Handog NÖ, Jmt</t>
+          <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505212.9541713706</v>
+        <v>505099.1858613641</v>
       </c>
       <c r="R7" t="n">
-        <v>7024602.146124261</v>
+        <v>7024337.518639307</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1327,7 +1329,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1337,17 +1339,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1362,22 +1359,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101964143</v>
+        <v>101962923</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>96354</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,39 +1383,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505182.813384954</v>
+        <v>505123.0483517249</v>
       </c>
       <c r="R8" t="n">
-        <v>7024057.919267574</v>
+        <v>7024597.960710336</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1487,10 +1485,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101961237</v>
+        <v>101962873</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1503,21 +1501,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1528,10 +1526,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505150.4645866206</v>
+        <v>505141.0466565556</v>
       </c>
       <c r="R9" t="n">
-        <v>7024322.334824757</v>
+        <v>7024588.112490827</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1600,10 +1598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101962634</v>
+        <v>101963402</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>96354</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1612,25 +1610,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1642,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>505191.403559137</v>
+        <v>505099.0345876367</v>
       </c>
       <c r="R10" t="n">
-        <v>7024584.601933427</v>
+        <v>7024432.703014738</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1688,11 +1686,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>50-tal plantor</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1719,10 +1712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101961818</v>
+        <v>101963909</v>
       </c>
       <c r="B11" t="n">
-        <v>56395</v>
+        <v>96354</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,41 +1724,40 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>505053.7762084119</v>
+        <v>505242.8337184278</v>
       </c>
       <c r="R11" t="n">
-        <v>7024622.992183947</v>
+        <v>7024199.458035694</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1808,11 +1800,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1839,10 +1826,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101960955</v>
+        <v>101963316</v>
       </c>
       <c r="B12" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,21 +1842,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1867,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505182.6567327932</v>
+        <v>505051.2725368073</v>
       </c>
       <c r="R12" t="n">
-        <v>7024154.907976707</v>
+        <v>7024499.973365523</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1952,10 +1939,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101961282</v>
+        <v>101962943</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1968,35 +1955,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505099.1858613641</v>
+        <v>505133.4586762256</v>
       </c>
       <c r="R13" t="n">
-        <v>7024337.518639307</v>
+        <v>7024553.979524222</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2039,6 +2028,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2065,10 +2059,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101962923</v>
+        <v>101961999</v>
       </c>
       <c r="B14" t="n">
-        <v>96354</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2077,40 +2071,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505123.0483517249</v>
+        <v>505134.5673855476</v>
       </c>
       <c r="R14" t="n">
-        <v>7024597.960710336</v>
+        <v>7024703.930606476</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2179,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101962873</v>
+        <v>101962788</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2191,39 +2184,40 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505141.0466565556</v>
+        <v>505230.5748988798</v>
       </c>
       <c r="R15" t="n">
-        <v>7024588.112490827</v>
+        <v>7024548.299896016</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2266,6 +2260,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>100-tal plantor</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2292,7 +2291,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101963402</v>
+        <v>101962812</v>
       </c>
       <c r="B16" t="n">
         <v>96354</v>
@@ -2334,10 +2333,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505099.0345876367</v>
+        <v>505190.0316263599</v>
       </c>
       <c r="R16" t="n">
-        <v>7024432.703014738</v>
+        <v>7024598.966281394</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2406,10 +2405,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101963909</v>
+        <v>101961377</v>
       </c>
       <c r="B17" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2418,40 +2417,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505242.8337184278</v>
+        <v>505046.4924516133</v>
       </c>
       <c r="R17" t="n">
-        <v>7024199.458035694</v>
+        <v>7024394.905619953</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2520,7 +2518,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101963316</v>
+        <v>101961542</v>
       </c>
       <c r="B18" t="n">
         <v>77506</v>
@@ -2561,10 +2559,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505051.2725368073</v>
+        <v>505031.3503892951</v>
       </c>
       <c r="R18" t="n">
-        <v>7024499.973365523</v>
+        <v>7024589.734403737</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2633,10 +2631,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>101962943</v>
+        <v>101963308</v>
       </c>
       <c r="B19" t="n">
-        <v>56395</v>
+        <v>96354</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2645,41 +2643,40 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505133.4586762256</v>
+        <v>505051.2725368073</v>
       </c>
       <c r="R19" t="n">
-        <v>7024553.979524222</v>
+        <v>7024499.973365523</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2722,11 +2719,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2753,10 +2745,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>101961999</v>
+        <v>101962880</v>
       </c>
       <c r="B20" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2769,21 +2761,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2794,10 +2786,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505134.5673855476</v>
+        <v>505141.0466565556</v>
       </c>
       <c r="R20" t="n">
-        <v>7024703.930606476</v>
+        <v>7024588.112490827</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2866,10 +2858,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>101962788</v>
+        <v>101962205</v>
       </c>
       <c r="B21" t="n">
-        <v>96334</v>
+        <v>77506</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2878,40 +2870,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505230.5748988798</v>
+        <v>505289.6892542656</v>
       </c>
       <c r="R21" t="n">
-        <v>7024548.299896016</v>
+        <v>7024687.122882423</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2954,11 +2945,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>100-tal plantor</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2985,7 +2971,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>101962812</v>
+        <v>101961782</v>
       </c>
       <c r="B22" t="n">
         <v>96354</v>
@@ -3027,10 +3013,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505190.0316263599</v>
+        <v>505071.2436967121</v>
       </c>
       <c r="R22" t="n">
-        <v>7024598.966281394</v>
+        <v>7024664.32295818</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3099,7 +3085,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>101961377</v>
+        <v>101963642</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3140,10 +3126,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>505046.4924516133</v>
+        <v>505243.7146094487</v>
       </c>
       <c r="R23" t="n">
-        <v>7024394.905619953</v>
+        <v>7024210.684706042</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3212,10 +3198,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>101961542</v>
+        <v>101962135</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3228,21 +3214,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3253,10 +3239,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505031.3503892951</v>
+        <v>505286.5165151077</v>
       </c>
       <c r="R24" t="n">
-        <v>7024589.734403737</v>
+        <v>7024702.830583667</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3325,7 +3311,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>101963308</v>
+        <v>101963246</v>
       </c>
       <c r="B25" t="n">
         <v>96354</v>
@@ -3367,10 +3353,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>505051.2725368073</v>
+        <v>505049.3576435552</v>
       </c>
       <c r="R25" t="n">
-        <v>7024499.973365523</v>
+        <v>7024574.049215455</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3439,10 +3425,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>101962880</v>
+        <v>101963154</v>
       </c>
       <c r="B26" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3451,39 +3437,40 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>505141.0466565556</v>
+        <v>505104.697747403</v>
       </c>
       <c r="R26" t="n">
-        <v>7024588.112490827</v>
+        <v>7024546.750257618</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3552,10 +3539,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>101961782</v>
+        <v>101961718</v>
       </c>
       <c r="B27" t="n">
-        <v>96354</v>
+        <v>56395</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3564,40 +3551,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>505071.2436967121</v>
+        <v>505034.3860168228</v>
       </c>
       <c r="R27" t="n">
-        <v>7024664.32295818</v>
+        <v>7024660.673344476</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3640,6 +3628,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3666,10 +3659,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101963642</v>
+        <v>101962409</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3678,39 +3671,40 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>505243.7146094487</v>
+        <v>505207.983488301</v>
       </c>
       <c r="R28" t="n">
-        <v>7024210.684706042</v>
+        <v>7024617.851396061</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3779,10 +3773,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>101963246</v>
+        <v>101960896</v>
       </c>
       <c r="B29" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3791,40 +3785,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>505049.3576435552</v>
+        <v>505211.3998533073</v>
       </c>
       <c r="R29" t="n">
-        <v>7024574.049215455</v>
+        <v>7024175.160196485</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3893,10 +3886,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>101963154</v>
+        <v>101963829</v>
       </c>
       <c r="B30" t="n">
-        <v>96354</v>
+        <v>89673</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3905,40 +3898,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221952</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>505104.697747403</v>
+        <v>505237.901116207</v>
       </c>
       <c r="R30" t="n">
-        <v>7024546.750257618</v>
+        <v>7024191.367789404</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4007,10 +3999,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>101961718</v>
+        <v>101962460</v>
       </c>
       <c r="B31" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4023,37 +4015,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>505034.3860168228</v>
+        <v>505195.8861092342</v>
       </c>
       <c r="R31" t="n">
-        <v>7024660.673344476</v>
+        <v>7024592.690392299</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4100,7 +4090,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På rönn</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4127,10 +4117,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>101960896</v>
+        <v>101962852</v>
       </c>
       <c r="B32" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4139,39 +4129,40 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>505211.3998533073</v>
+        <v>505172.0643537337</v>
       </c>
       <c r="R32" t="n">
-        <v>7024175.160196485</v>
+        <v>7024589.509212567</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4240,10 +4231,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>101963829</v>
+        <v>101961764</v>
       </c>
       <c r="B33" t="n">
-        <v>89673</v>
+        <v>56395</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4256,35 +4247,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>505237.901116207</v>
+        <v>505072.6413351368</v>
       </c>
       <c r="R33" t="n">
-        <v>7024191.367789404</v>
+        <v>7024633.347809729</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4327,6 +4320,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4353,10 +4351,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>101962460</v>
+        <v>101962174</v>
       </c>
       <c r="B34" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4369,35 +4367,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>505195.8861092342</v>
+        <v>505276.6294293109</v>
       </c>
       <c r="R34" t="n">
-        <v>7024592.690392299</v>
+        <v>7024701.018546463</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På rönn</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4471,7 +4471,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>101962852</v>
+        <v>101963508</v>
       </c>
       <c r="B35" t="n">
         <v>96354</v>
@@ -4513,10 +4513,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>505172.0643537337</v>
+        <v>505137.431202813</v>
       </c>
       <c r="R35" t="n">
-        <v>7024589.509212567</v>
+        <v>7024319.170978282</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>101961764</v>
+        <v>101960734</v>
       </c>
       <c r="B36" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4601,37 +4601,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>505072.6413351368</v>
+        <v>505216.0128478511</v>
       </c>
       <c r="R36" t="n">
-        <v>7024633.347809729</v>
+        <v>7024103.32474665</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4674,11 +4672,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4705,10 +4698,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>101963508</v>
+        <v>101962793</v>
       </c>
       <c r="B37" t="n">
-        <v>96354</v>
+        <v>89356</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4721,36 +4714,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221952</v>
+        <v>5447</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Östersund, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>505137.431202813</v>
+        <v>505167.9857412797</v>
       </c>
       <c r="R37" t="n">
-        <v>7024319.170978282</v>
+        <v>7024609.705576058</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4819,10 +4811,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>101960734</v>
+        <v>107191953</v>
       </c>
       <c r="B38" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4835,38 +4827,41 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Östersund, Jmt</t>
+          <t>Sällflon Handog NÖ, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>505216.0128478511</v>
+        <v>505124.7920948349</v>
       </c>
       <c r="R38" t="n">
-        <v>7024103.32474665</v>
+        <v>7024632.083844565</v>
       </c>
       <c r="S38" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4890,7 +4885,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4900,12 +4895,17 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4920,19 +4920,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>107191953</v>
+        <v>107191961</v>
       </c>
       <c r="B39" t="n">
         <v>56395</v>
@@ -4976,10 +4976,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>505124.7920948349</v>
+        <v>505015.7444427097</v>
       </c>
       <c r="R39" t="n">
-        <v>7024632.083844565</v>
+        <v>7024219.749411361</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>107191961</v>
+        <v>107191959</v>
       </c>
       <c r="B40" t="n">
         <v>56395</v>
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>505015.7444427097</v>
+        <v>505346.3482717267</v>
       </c>
       <c r="R40" t="n">
-        <v>7024219.749411361</v>
+        <v>7024407.962760132</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5174,7 +5174,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>107191959</v>
+        <v>107191962</v>
       </c>
       <c r="B41" t="n">
         <v>56395</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>505346.3482717267</v>
+        <v>504997.4689167721</v>
       </c>
       <c r="R41" t="n">
-        <v>7024407.962760132</v>
+        <v>7024406.502413709</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5295,7 +5295,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107191962</v>
+        <v>107191955</v>
       </c>
       <c r="B42" t="n">
         <v>56395</v>
@@ -5339,10 +5339,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>504997.4689167721</v>
+        <v>505138.7636031522</v>
       </c>
       <c r="R42" t="n">
-        <v>7024406.502413709</v>
+        <v>7024610.107588517</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>107191955</v>
+        <v>107191965</v>
       </c>
       <c r="B43" t="n">
         <v>56395</v>
@@ -5460,10 +5460,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>505138.7636031522</v>
+        <v>505027.3324623604</v>
       </c>
       <c r="R43" t="n">
-        <v>7024610.107588517</v>
+        <v>7024571.769837097</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5537,10 +5537,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>107191965</v>
+        <v>107191971</v>
       </c>
       <c r="B44" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5553,38 +5553,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Sällflon Handog NÖ, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>505027.3324623604</v>
+        <v>505275.6853465831</v>
       </c>
       <c r="R44" t="n">
-        <v>7024571.769837097</v>
+        <v>7024454.98844434</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5627,11 +5623,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5658,10 +5649,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>107191971</v>
+        <v>107191956</v>
       </c>
       <c r="B45" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5674,34 +5665,38 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Sällflon Handog NÖ, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>505275.6853465831</v>
+        <v>505212.9541713706</v>
       </c>
       <c r="R45" t="n">
-        <v>7024454.98844434</v>
+        <v>7024602.146124261</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5744,6 +5739,11 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
